--- a/haunting_mars/stats_tx.xlsx
+++ b/haunting_mars/stats_tx.xlsx
@@ -1,18 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E333D4F8-75BD-9B45-89D9-1AA3275C3EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F" sheetId="1" r:id="rId1"/>
     <sheet name="OUTPUT" sheetId="2" r:id="rId2"/>
     <sheet name="SkillFormulas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>ST</t>
   </si>
@@ -47,9 +64,6 @@
     <t>TX Wang</t>
   </si>
   <si>
-    <t>Vacuum Pod</t>
-  </si>
-  <si>
     <t>APTITUDE</t>
   </si>
   <si>
@@ -143,9 +157,6 @@
     <t>French (A/A)</t>
   </si>
   <si>
-    <t>Flexible, Basic Biomods, Mesh Inserts, Cyberbrain, DR 2, Enhanced Respiration, Grip Pads, Mnemonic Augmentation, Oxygen Reserve, Prehensile Feet, Puppet Sock, Social Stigma: Pod, Cortical Stack</t>
-  </si>
-  <si>
     <t>Streetwise</t>
   </si>
   <si>
@@ -180,12 +191,27 @@
   </si>
   <si>
     <t>Carousing</t>
+  </si>
+  <si>
+    <t>Splicer</t>
+  </si>
+  <si>
+    <t>Basic Biomods, Mesh Inserts, Cortical Stack, Voice, Attractive</t>
+  </si>
+  <si>
+    <t>Play: Guitar</t>
+  </si>
+  <si>
+    <t>LINE 2:</t>
+  </si>
+  <si>
+    <t>pale skin, 185 cm, 70 kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -208,6 +234,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,12 +258,14 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -422,14 +451,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="159">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -594,6 +623,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -918,14 +955,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="2" max="2" width="4.83203125" customWidth="1"/>
@@ -934,19 +971,19 @@
     <col min="6" max="8" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2"/>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,16 +1002,20 @@
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="20">
+      <c r="I2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:H3" si="0">C4+C5</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
@@ -982,51 +1023,51 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
-        <v>10</v>
+      <c r="E4">
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1034,7 +1075,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5"/>
       <c r="F5">
         <v>2</v>
       </c>
@@ -1045,83 +1086,83 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5">
         <f>(D3+H3)/4+L5</f>
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="77" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="J7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="41" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="11" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
         <v>23</v>
       </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1131,19 +1172,19 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" ref="E12:E35" si="1">H12+C12+D12</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12">
         <f>INDEX($C$3:$H$3,(MATCH($B12,$2:$2,0)-2))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1153,19 +1194,19 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13:H29" si="2">INDEX($C$3:$H$3,(MATCH($B13,$2:$2,0)-2))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -1173,18 +1214,21 @@
       <c r="C14">
         <v>3</v>
       </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -1194,16 +1238,16 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -1220,9 +1264,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -1230,18 +1274,21 @@
       <c r="C17">
         <v>2</v>
       </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -1249,21 +1296,18 @@
       <c r="C18">
         <v>-5</v>
       </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -1273,16 +1317,16 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -1292,32 +1336,32 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H20">
         <f>INDEX($C$3:$H$3,(MATCH($B20,$2:$2,0)-2))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -1325,21 +1369,18 @@
       <c r="C22">
         <v>-1</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -1349,16 +1390,16 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1368,32 +1409,32 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -1407,9 +1448,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -1419,16 +1460,16 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -1442,9 +1483,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -1461,9 +1502,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -1480,9 +1521,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -1492,16 +1533,16 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -1518,9 +1559,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -1537,9 +1578,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -1549,16 +1590,16 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -1575,9 +1616,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -1587,16 +1628,16 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" ref="E36:E41" si="4">H36+C36+D36</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H36">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -1606,24 +1647,33 @@
       </c>
       <c r="E37" s="1">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="E38" s="1" t="e">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H38" t="e">
+        <v>13</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E39" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1633,7 +1683,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E40" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1643,7 +1693,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E41" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1670,103 +1720,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="str">
         <f>F!A1</f>
         <v>TX Wang</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>F!J1</f>
         <v>Activist; born 2116, Hong Kong, China, Earth</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>UPPER(F!A4)&amp;": "</f>
-        <v xml:space="preserve">VACUUM POD: </v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <f>UPPER(F!A4)&amp;": "&amp;(F!J2)</f>
+        <v>SPLICER: pale skin, 185 cm, 70 kg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
-        <v>ST 11 DX 12 IQ 10 WILL 12 PER 11 HT 12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>ST 12 DX 12 IQ 11 WILL 13 PER 12 HT 13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>"Speed "&amp;F!K5</f>
-        <v>Speed 6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>Speed 6,25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A7</f>
-        <v>Flexible, Basic Biomods, Mesh Inserts, Cyberbrain, DR 2, Enhanced Respiration, Grip Pads, Mnemonic Augmentation, Oxygen Reserve, Prehensile Feet, Puppet Sock, Social Stigma: Pod, Cortical Stack</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>Basic Biomods, Mesh Inserts, Cortical Stack, Voice, Attractive</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>SkillFormulas!E22&amp;SkillFormulas!F22&amp;SkillFormulas!G22&amp;SkillFormulas!H22&amp;SkillFormulas!I22&amp;SkillFormulas!J22</f>
         <v>Somatic Aptitude 1, Coordination Aptitude 1, Willpower Aptitude 2, Alertness 1, Endurance Aptitude 1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>F!A9</f>
         <v>Charisma+2, Status -2 (Bodiless), Secret (Infiltrator), Sense of duty: to the revolution, Impulsiveness, Musical Talent +1</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>SkillFormulas!G7</f>
         <v xml:space="preserve">Cantonese (N/N), French (A/A), </v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>SkillFormulas!$G$1</f>
-        <v xml:space="preserve">Leadership-13, Performance-13, Public Speaking-13, Acting-11, Brawling-14, Singing-14, </v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v xml:space="preserve">Leadership-14, Performance-14, Public Speaking-16, Acting-12, Brawling-14, Singing-17, </v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>SkillFormulas!$G$2</f>
-        <v xml:space="preserve">Climbing-15, Composition-11, Demolition-11, Camouflage-10, Free Fall-13, El Ops: Surveillance / Security-11, </v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v xml:space="preserve">Climbing-7, Composition-12, Demolition-12, Camouflage-11, Free Fall-11, El Ops: Surveillance / Security-12, </v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>SkillFormulas!$G$3</f>
-        <v xml:space="preserve">Survival: Urban-12, Disguise-10, Stealth-12, Streetwise-12, Driving: Ground car-12, Shortsword-12, </v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v xml:space="preserve">Survival: Urban-13, Disguise-11, Stealth-12, Streetwise-13, Driving: Ground car-12, Shortsword-12, </v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>SkillFormulas!G4</f>
-        <v xml:space="preserve">Guns (Pistol)-12, Fast Talk-13, Filch-12, Dancing-13, Poetry-9, Throwing-11, </v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v xml:space="preserve">Guns (Pistol)-12, Fast Talk-14, Filch-12, Dancing-13, Poetry-10, Throwing-11, </v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>SkillFormulas!G5</f>
-        <v xml:space="preserve">Politics-9, Carousing-12, </v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v xml:space="preserve">Politics-10, Carousing-13, Play: Guitar-13, </v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>F!J7</f>
         <v>No experience with resleeving; Wants to find out about her previous version</v>
@@ -1784,26 +1834,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>F!A12&amp;"-"&amp;F!E12&amp;", "</f>
-        <v xml:space="preserve">Leadership-13, </v>
+        <v xml:space="preserve">Leadership-14, </v>
       </c>
       <c r="B1" t="str">
         <f t="shared" ref="B1:B15" si="0">IF(ISNUMBER(SEARCH("-",A1)),A1,"")</f>
-        <v xml:space="preserve">Leadership-13, </v>
+        <v xml:space="preserve">Leadership-14, </v>
       </c>
       <c r="D1" t="str">
         <f>F!J12&amp;", "</f>
@@ -1815,17 +1865,17 @@
       </c>
       <c r="G1" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6</f>
-        <v xml:space="preserve">Leadership-13, Performance-13, Public Speaking-13, Acting-11, Brawling-14, Singing-14, </v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v xml:space="preserve">Leadership-14, Performance-14, Public Speaking-16, Acting-12, Brawling-14, Singing-17, </v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>F!A13&amp;"-"&amp;F!E13&amp;", "</f>
-        <v xml:space="preserve">Performance-13, </v>
+        <v xml:space="preserve">Performance-14, </v>
       </c>
       <c r="B2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Performance-13, </v>
+        <v xml:space="preserve">Performance-14, </v>
       </c>
       <c r="D2" t="str">
         <f>F!J13&amp;", "</f>
@@ -1837,17 +1887,17 @@
       </c>
       <c r="G2" t="str">
         <f>B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12</f>
-        <v xml:space="preserve">Climbing-15, Composition-11, Demolition-11, Camouflage-10, Free Fall-13, El Ops: Surveillance / Security-11, </v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v xml:space="preserve">Climbing-7, Composition-12, Demolition-12, Camouflage-11, Free Fall-11, El Ops: Surveillance / Security-12, </v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>F!A14&amp;"-"&amp;F!E14&amp;", "</f>
-        <v xml:space="preserve">Public Speaking-13, </v>
+        <v xml:space="preserve">Public Speaking-16, </v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Public Speaking-13, </v>
+        <v xml:space="preserve">Public Speaking-16, </v>
       </c>
       <c r="D3" t="str">
         <f>F!J14&amp;", "</f>
@@ -1859,17 +1909,17 @@
       </c>
       <c r="G3" t="str">
         <f>B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18</f>
-        <v xml:space="preserve">Survival: Urban-12, Disguise-10, Stealth-12, Streetwise-12, Driving: Ground car-12, Shortsword-12, </v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v xml:space="preserve">Survival: Urban-13, Disguise-11, Stealth-12, Streetwise-13, Driving: Ground car-12, Shortsword-12, </v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>F!A15&amp;"-"&amp;F!E15&amp;", "</f>
-        <v xml:space="preserve">Acting-11, </v>
+        <v xml:space="preserve">Acting-12, </v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Acting-11, </v>
+        <v xml:space="preserve">Acting-12, </v>
       </c>
       <c r="D4" t="str">
         <f>F!J15&amp;", "</f>
@@ -1881,10 +1931,10 @@
       </c>
       <c r="G4" t="str">
         <f>B19&amp;B20&amp;B21&amp;B22&amp;B23&amp;B24</f>
-        <v xml:space="preserve">Guns (Pistol)-12, Fast Talk-13, Filch-12, Dancing-13, Poetry-9, Throwing-11, </v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v xml:space="preserve">Guns (Pistol)-12, Fast Talk-14, Filch-12, Dancing-13, Poetry-10, Throwing-11, </v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>F!A16&amp;"-"&amp;F!E16&amp;", "</f>
         <v xml:space="preserve">Brawling-14, </v>
@@ -1903,17 +1953,17 @@
       </c>
       <c r="G5" t="str">
         <f>B25&amp;B26&amp;B27&amp;B28&amp;B29&amp;B30</f>
-        <v xml:space="preserve">Politics-9, Carousing-12, </v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v xml:space="preserve">Politics-10, Carousing-13, Play: Guitar-13, </v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A17&amp;"-"&amp;F!E17&amp;", "</f>
-        <v xml:space="preserve">Singing-14, </v>
+        <v xml:space="preserve">Singing-17, </v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Singing-14, </v>
+        <v xml:space="preserve">Singing-17, </v>
       </c>
       <c r="D6" t="str">
         <f>F!J17&amp;", "</f>
@@ -1924,14 +1974,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>F!A18&amp;"-"&amp;F!E18&amp;", "</f>
-        <v xml:space="preserve">Climbing-15, </v>
+        <v xml:space="preserve">Climbing-7, </v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Climbing-15, </v>
+        <v xml:space="preserve">Climbing-7, </v>
       </c>
       <c r="D7" t="str">
         <f>F!J18&amp;", "</f>
@@ -1946,14 +1996,14 @@
         <v xml:space="preserve">Cantonese (N/N), French (A/A), </v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>F!A19&amp;"-"&amp;F!E19&amp;", "</f>
-        <v xml:space="preserve">Composition-11, </v>
+        <v xml:space="preserve">Composition-12, </v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Composition-11, </v>
+        <v xml:space="preserve">Composition-12, </v>
       </c>
       <c r="D8" t="str">
         <f>F!J19&amp;", "</f>
@@ -1964,14 +2014,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>F!A20&amp;"-"&amp;F!E20&amp;", "</f>
-        <v xml:space="preserve">Demolition-11, </v>
+        <v xml:space="preserve">Demolition-12, </v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Demolition-11, </v>
+        <v xml:space="preserve">Demolition-12, </v>
       </c>
       <c r="D9" t="str">
         <f>F!J20&amp;", "</f>
@@ -1982,57 +2032,57 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>F!A21&amp;"-"&amp;F!E21&amp;", "</f>
-        <v xml:space="preserve">Camouflage-10, </v>
+        <v xml:space="preserve">Camouflage-11, </v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Camouflage-10, </v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v xml:space="preserve">Camouflage-11, </v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>F!A22&amp;"-"&amp;F!E22&amp;", "</f>
-        <v xml:space="preserve">Free Fall-13, </v>
+        <v xml:space="preserve">Free Fall-11, </v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Free Fall-13, </v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v xml:space="preserve">Free Fall-11, </v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>F!A23&amp;"-"&amp;F!E23&amp;", "</f>
-        <v xml:space="preserve">El Ops: Surveillance / Security-11, </v>
+        <v xml:space="preserve">El Ops: Surveillance / Security-12, </v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">El Ops: Surveillance / Security-11, </v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v xml:space="preserve">El Ops: Surveillance / Security-12, </v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>F!A24&amp;"-"&amp;F!E24&amp;", "</f>
-        <v xml:space="preserve">Survival: Urban-12, </v>
+        <v xml:space="preserve">Survival: Urban-13, </v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Survival: Urban-12, </v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v xml:space="preserve">Survival: Urban-13, </v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>F!A25&amp;"-"&amp;F!E25&amp;", "</f>
-        <v xml:space="preserve">Disguise-10, </v>
+        <v xml:space="preserve">Disguise-11, </v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Disguise-10, </v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v xml:space="preserve">Disguise-11, </v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>F!A26&amp;"-"&amp;F!E26&amp;", "</f>
         <v xml:space="preserve">Stealth-12, </v>
@@ -2042,17 +2092,17 @@
         <v xml:space="preserve">Stealth-12, </v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>F!A27&amp;"-"&amp;F!E27&amp;", "</f>
-        <v xml:space="preserve">Streetwise-12, </v>
+        <v xml:space="preserve">Streetwise-13, </v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ref="B16:B30" si="2">IF(ISNUMBER(SEARCH("-",A16)),A16,"")</f>
-        <v xml:space="preserve">Streetwise-12, </v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v xml:space="preserve">Streetwise-13, </v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>F!A28&amp;"-"&amp;F!E28&amp;", "</f>
         <v xml:space="preserve">Driving: Ground car-12, </v>
@@ -2062,7 +2112,7 @@
         <v xml:space="preserve">Driving: Ground car-12, </v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>F!A29&amp;"-"&amp;F!E29&amp;", "</f>
         <v xml:space="preserve">Shortsword-12, </v>
@@ -2072,7 +2122,7 @@
         <v xml:space="preserve">Shortsword-12, </v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>F!A30&amp;"-"&amp;F!E30&amp;", "</f>
         <v xml:space="preserve">Guns (Pistol)-12, </v>
@@ -2082,17 +2132,17 @@
         <v xml:space="preserve">Guns (Pistol)-12, </v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>F!A31&amp;"-"&amp;F!E31&amp;", "</f>
-        <v xml:space="preserve">Fast Talk-13, </v>
+        <v xml:space="preserve">Fast Talk-14, </v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Fast Talk-13, </v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v xml:space="preserve">Fast Talk-14, </v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>F!A32&amp;"-"&amp;F!E32&amp;", "</f>
         <v xml:space="preserve">Filch-12, </v>
@@ -2102,7 +2152,7 @@
         <v xml:space="preserve">Filch-12, </v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>F!A33&amp;"-"&amp;F!E33&amp;", "</f>
         <v xml:space="preserve">Dancing-13, </v>
@@ -2136,17 +2186,17 @@
         <v>Endurance Aptitude 1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>F!A34&amp;"-"&amp;F!E34&amp;", "</f>
-        <v xml:space="preserve">Poetry-9, </v>
+        <v xml:space="preserve">Poetry-10, </v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Poetry-9, </v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v xml:space="preserve">Poetry-10, </v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>F!A35&amp;"-"&amp;F!E35&amp;", "</f>
         <v xml:space="preserve">Throwing-11, </v>
@@ -2156,37 +2206,37 @@
         <v xml:space="preserve">Throwing-11, </v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>F!A36&amp;"-"&amp;F!E36&amp;", "</f>
-        <v xml:space="preserve">Politics-9, </v>
+        <v xml:space="preserve">Politics-10, </v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Politics-9, </v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v xml:space="preserve">Politics-10, </v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>F!A37&amp;"-"&amp;F!E37&amp;", "</f>
-        <v xml:space="preserve">Carousing-12, </v>
+        <v xml:space="preserve">Carousing-13, </v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Carousing-12, </v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="e">
+        <v xml:space="preserve">Carousing-13, </v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
         <f>F!A38&amp;"-"&amp;F!E38&amp;", "</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Play: Guitar-13, </v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v xml:space="preserve">Play: Guitar-13, </v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="e">
         <f>F!A39&amp;"-"&amp;F!E39&amp;", "</f>
         <v>#N/A</v>
@@ -2196,7 +2246,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="e">
         <f>F!A40&amp;"-"&amp;F!E40&amp;", "</f>
         <v>#N/A</v>
@@ -2206,7 +2256,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="e">
         <f>F!A41&amp;"-"&amp;F!E41&amp;", "</f>
         <v>#N/A</v>

--- a/haunting_mars/stats_tx.xlsx
+++ b/haunting_mars/stats_tx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E333D4F8-75BD-9B45-89D9-1AA3275C3EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F4EF9D-A266-E447-B487-E369879460C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>ST</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Quirks</t>
   </si>
   <si>
-    <t>No experience with resleeving; Wants to find out about her previous version</t>
-  </si>
-  <si>
     <t>LINE 1:</t>
   </si>
   <si>
@@ -193,26 +190,35 @@
     <t>Carousing</t>
   </si>
   <si>
-    <t>Splicer</t>
-  </si>
-  <si>
-    <t>Basic Biomods, Mesh Inserts, Cortical Stack, Voice, Attractive</t>
-  </si>
-  <si>
     <t>Play: Guitar</t>
   </si>
   <si>
     <t>LINE 2:</t>
   </si>
   <si>
-    <t>pale skin, 185 cm, 70 kg</t>
+    <t>Fabber Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Little experience with resleeving; Wants to find out about her previous version</t>
+  </si>
+  <si>
+    <t>Video Gaming</t>
+  </si>
+  <si>
+    <t>bald, 158 cm, 54 kg</t>
+  </si>
+  <si>
+    <t>SYNTH (RR C FLEXI-SKIN)</t>
+  </si>
+  <si>
+    <t>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Chummy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,6 +273,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -446,19 +458,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="159">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -956,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -977,7 +988,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
         <v>33</v>
@@ -1003,9 +1014,9 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1015,11 +1026,11 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:H3" si="0">C4+C5</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
@@ -1027,40 +1038,40 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>51</v>
+      <c r="A4" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1090,7 +1101,7 @@
       </c>
       <c r="K5">
         <f>(D3+H3)/4+L5</f>
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1105,23 +1116,23 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="J7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1129,16 +1140,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1179,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1201,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1214,12 +1225,9 @@
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
@@ -1257,11 +1265,11 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1274,16 +1282,13 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1298,11 +1303,11 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1371,11 +1376,11 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1409,11 +1414,11 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1441,16 +1446,16 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -1469,23 +1474,23 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28">
         <f>INDEX($C$3:$H$3,(MATCH($B28,$2:$2,0)-2))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -1495,16 +1500,16 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -1514,16 +1519,16 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H41" si="3">INDEX($C$3:$H$3,(MATCH($B30,$2:$2,0)-2))</f>
-        <v>12</v>
+        <f t="shared" ref="H30:H46" si="3">INDEX($C$3:$H$3,(MATCH($B30,$2:$2,0)-2))</f>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -1542,7 +1547,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -1552,16 +1557,16 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -1571,16 +1576,16 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -1599,7 +1604,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -1609,16 +1614,16 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -1637,7 +1642,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -1647,16 +1652,16 @@
       </c>
       <c r="E37" s="1">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -1674,23 +1679,41 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E39" s="1" t="e">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="1">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H39" t="e">
+        <v>10</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E40" s="1" t="e">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H40" t="e">
+        <v>11</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1699,6 +1722,56 @@
         <v>#N/A</v>
       </c>
       <c r="H41" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E42" s="1" t="e">
+        <f t="shared" ref="E42:E46" si="5">H42+C42+D42</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H42" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E43" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H43" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E44" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H44" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E45" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H45" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E46" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H46" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -1721,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1747,25 +1820,25 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>UPPER(F!A4)&amp;": "&amp;(F!J2)</f>
-        <v>SPLICER: pale skin, 185 cm, 70 kg</v>
+        <v>SYNTH (RR C FLEXI-SKIN): bald, 158 cm, 54 kg</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
-        <v>ST 12 DX 12 IQ 11 WILL 13 PER 12 HT 13</v>
+        <v>ST 13 DX 11 IQ 11 WILL 12 PER 11 HT 12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>"Speed "&amp;F!K5</f>
-        <v>Speed 6,25</v>
+        <v>Speed 5,75</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A7</f>
-        <v>Basic Biomods, Mesh Inserts, Cortical Stack, Voice, Attractive</v>
+        <v>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Chummy</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1789,37 +1862,43 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>SkillFormulas!$G$1</f>
-        <v xml:space="preserve">Leadership-14, Performance-14, Public Speaking-16, Acting-12, Brawling-14, Singing-17, </v>
+        <v xml:space="preserve">Leadership-14, Performance-14, Public Speaking-14, Acting-12, Brawling-13, Singing-14, </v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>SkillFormulas!$G$2</f>
-        <v xml:space="preserve">Climbing-7, Composition-12, Demolition-12, Camouflage-11, Free Fall-11, El Ops: Surveillance / Security-12, </v>
+        <v xml:space="preserve">Climbing-6, Composition-12, Demolition-12, Camouflage-11, Free Fall-10, El Ops: Surveillance / Security-12, </v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>SkillFormulas!$G$3</f>
-        <v xml:space="preserve">Survival: Urban-13, Disguise-11, Stealth-12, Streetwise-13, Driving: Ground car-12, Shortsword-12, </v>
+        <v xml:space="preserve">Survival: Urban-12, Disguise-11, Stealth-11, Streetwise-13, Driving: Ground car-11, Shortsword-11, </v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>SkillFormulas!G4</f>
-        <v xml:space="preserve">Guns (Pistol)-12, Fast Talk-14, Filch-12, Dancing-13, Poetry-10, Throwing-11, </v>
+        <v xml:space="preserve">Guns (Pistol)-11, Fast Talk-14, Filch-11, Dancing-12, Poetry-10, Throwing-10, </v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>SkillFormulas!G5</f>
-        <v xml:space="preserve">Politics-10, Carousing-13, Play: Guitar-13, </v>
+        <v xml:space="preserve">Politics-10, Carousing-12, Play: Guitar-13, Fabber Programming-10, Video Gaming-11, </v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
+        <f>SkillFormulas!G6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
         <f>F!J7</f>
-        <v>No experience with resleeving; Wants to find out about her previous version</v>
+        <v xml:space="preserve"> Little experience with resleeving; Wants to find out about her previous version</v>
       </c>
     </row>
   </sheetData>
@@ -1835,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1865,7 +1944,7 @@
       </c>
       <c r="G1" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6</f>
-        <v xml:space="preserve">Leadership-14, Performance-14, Public Speaking-16, Acting-12, Brawling-14, Singing-17, </v>
+        <v xml:space="preserve">Leadership-14, Performance-14, Public Speaking-14, Acting-12, Brawling-13, Singing-14, </v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1887,17 +1966,17 @@
       </c>
       <c r="G2" t="str">
         <f>B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12</f>
-        <v xml:space="preserve">Climbing-7, Composition-12, Demolition-12, Camouflage-11, Free Fall-11, El Ops: Surveillance / Security-12, </v>
+        <v xml:space="preserve">Climbing-6, Composition-12, Demolition-12, Camouflage-11, Free Fall-10, El Ops: Surveillance / Security-12, </v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>F!A14&amp;"-"&amp;F!E14&amp;", "</f>
-        <v xml:space="preserve">Public Speaking-16, </v>
+        <v xml:space="preserve">Public Speaking-14, </v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Public Speaking-16, </v>
+        <v xml:space="preserve">Public Speaking-14, </v>
       </c>
       <c r="D3" t="str">
         <f>F!J14&amp;", "</f>
@@ -1909,7 +1988,7 @@
       </c>
       <c r="G3" t="str">
         <f>B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18</f>
-        <v xml:space="preserve">Survival: Urban-13, Disguise-11, Stealth-12, Streetwise-13, Driving: Ground car-12, Shortsword-12, </v>
+        <v xml:space="preserve">Survival: Urban-12, Disguise-11, Stealth-11, Streetwise-13, Driving: Ground car-11, Shortsword-11, </v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1931,17 +2010,17 @@
       </c>
       <c r="G4" t="str">
         <f>B19&amp;B20&amp;B21&amp;B22&amp;B23&amp;B24</f>
-        <v xml:space="preserve">Guns (Pistol)-12, Fast Talk-14, Filch-12, Dancing-13, Poetry-10, Throwing-11, </v>
+        <v xml:space="preserve">Guns (Pistol)-11, Fast Talk-14, Filch-11, Dancing-12, Poetry-10, Throwing-10, </v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>F!A16&amp;"-"&amp;F!E16&amp;", "</f>
-        <v xml:space="preserve">Brawling-14, </v>
+        <v xml:space="preserve">Brawling-13, </v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Brawling-14, </v>
+        <v xml:space="preserve">Brawling-13, </v>
       </c>
       <c r="D5" t="str">
         <f>F!J16&amp;", "</f>
@@ -1953,17 +2032,17 @@
       </c>
       <c r="G5" t="str">
         <f>B25&amp;B26&amp;B27&amp;B28&amp;B29&amp;B30</f>
-        <v xml:space="preserve">Politics-10, Carousing-13, Play: Guitar-13, </v>
+        <v xml:space="preserve">Politics-10, Carousing-12, Play: Guitar-13, Fabber Programming-10, Video Gaming-11, </v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A17&amp;"-"&amp;F!E17&amp;", "</f>
-        <v xml:space="preserve">Singing-17, </v>
+        <v xml:space="preserve">Singing-14, </v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Singing-17, </v>
+        <v xml:space="preserve">Singing-14, </v>
       </c>
       <c r="D6" t="str">
         <f>F!J17&amp;", "</f>
@@ -1973,15 +2052,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="G6" t="str">
+        <f>B31&amp;B32&amp;B33&amp;B34&amp;B35</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>F!A18&amp;"-"&amp;F!E18&amp;", "</f>
-        <v xml:space="preserve">Climbing-7, </v>
+        <v xml:space="preserve">Climbing-6, </v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Climbing-7, </v>
+        <v xml:space="preserve">Climbing-6, </v>
       </c>
       <c r="D7" t="str">
         <f>F!J18&amp;", "</f>
@@ -2045,11 +2128,11 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>F!A22&amp;"-"&amp;F!E22&amp;", "</f>
-        <v xml:space="preserve">Free Fall-11, </v>
+        <v xml:space="preserve">Free Fall-10, </v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Free Fall-11, </v>
+        <v xml:space="preserve">Free Fall-10, </v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2065,11 +2148,11 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>F!A24&amp;"-"&amp;F!E24&amp;", "</f>
-        <v xml:space="preserve">Survival: Urban-13, </v>
+        <v xml:space="preserve">Survival: Urban-12, </v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Survival: Urban-13, </v>
+        <v xml:space="preserve">Survival: Urban-12, </v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2085,11 +2168,11 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>F!A26&amp;"-"&amp;F!E26&amp;", "</f>
-        <v xml:space="preserve">Stealth-12, </v>
+        <v xml:space="preserve">Stealth-11, </v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Stealth-12, </v>
+        <v xml:space="preserve">Stealth-11, </v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2105,31 +2188,31 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>F!A28&amp;"-"&amp;F!E28&amp;", "</f>
-        <v xml:space="preserve">Driving: Ground car-12, </v>
+        <v xml:space="preserve">Driving: Ground car-11, </v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Driving: Ground car-12, </v>
+        <v xml:space="preserve">Driving: Ground car-11, </v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>F!A29&amp;"-"&amp;F!E29&amp;", "</f>
-        <v xml:space="preserve">Shortsword-12, </v>
+        <v xml:space="preserve">Shortsword-11, </v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Shortsword-12, </v>
+        <v xml:space="preserve">Shortsword-11, </v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>F!A30&amp;"-"&amp;F!E30&amp;", "</f>
-        <v xml:space="preserve">Guns (Pistol)-12, </v>
+        <v xml:space="preserve">Guns (Pistol)-11, </v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Guns (Pistol)-12, </v>
+        <v xml:space="preserve">Guns (Pistol)-11, </v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2145,21 +2228,21 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>F!A32&amp;"-"&amp;F!E32&amp;", "</f>
-        <v xml:space="preserve">Filch-12, </v>
+        <v xml:space="preserve">Filch-11, </v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Filch-12, </v>
+        <v xml:space="preserve">Filch-11, </v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>F!A33&amp;"-"&amp;F!E33&amp;", "</f>
-        <v xml:space="preserve">Dancing-13, </v>
+        <v xml:space="preserve">Dancing-12, </v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Dancing-13, </v>
+        <v xml:space="preserve">Dancing-12, </v>
       </c>
       <c r="E22" t="str">
         <f>IF(F!C5&lt;&gt;"","Somatic Aptitude "&amp;F!C5&amp;", ","")</f>
@@ -2199,11 +2282,11 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>F!A35&amp;"-"&amp;F!E35&amp;", "</f>
-        <v xml:space="preserve">Throwing-11, </v>
+        <v xml:space="preserve">Throwing-10, </v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Throwing-11, </v>
+        <v xml:space="preserve">Throwing-10, </v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2219,11 +2302,11 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>F!A37&amp;"-"&amp;F!E37&amp;", "</f>
-        <v xml:space="preserve">Carousing-13, </v>
+        <v xml:space="preserve">Carousing-12, </v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Carousing-13, </v>
+        <v xml:space="preserve">Carousing-12, </v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2237,23 +2320,23 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="e">
+      <c r="A28" t="str">
         <f>F!A39&amp;"-"&amp;F!E39&amp;", "</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Fabber Programming-10, </v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">Fabber Programming-10, </v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="e">
+      <c r="A29" t="str">
         <f>F!A40&amp;"-"&amp;F!E40&amp;", "</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Video Gaming-11, </v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">Video Gaming-11, </v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2263,6 +2346,56 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="e">
+        <f>F!A42&amp;"-"&amp;F!E42&amp;", "</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" ref="B31:B35" si="3">IF(ISNUMBER(SEARCH("-",A31)),A31,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="e">
+        <f>F!A43&amp;"-"&amp;F!E43&amp;", "</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="e">
+        <f>F!A44&amp;"-"&amp;F!E44&amp;", "</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="e">
+        <f>F!A45&amp;"-"&amp;F!E45&amp;", "</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="e">
+        <f>F!A46&amp;"-"&amp;F!E46&amp;", "</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>

--- a/haunting_mars/stats_tx.xlsx
+++ b/haunting_mars/stats_tx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F4EF9D-A266-E447-B487-E369879460C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFF9BC1-3C18-A147-B00F-876B306A7E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,12 +463,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="159">
@@ -970,7 +970,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1052,7 +1052,7 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C4">
@@ -1116,23 +1116,23 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="J7" s="4" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1140,16 +1140,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">

--- a/haunting_mars/stats_tx.xlsx
+++ b/haunting_mars/stats_tx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFF9BC1-3C18-A147-B00F-876B306A7E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB0CEDD-4480-174A-8D54-2DB4165AD14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9680" yWindow="3480" windowWidth="24880" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F" sheetId="1" r:id="rId1"/>
@@ -969,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
@@ -1796,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1844,7 +1844,7 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>SkillFormulas!E22&amp;SkillFormulas!F22&amp;SkillFormulas!G22&amp;SkillFormulas!H22&amp;SkillFormulas!I22&amp;SkillFormulas!J22</f>
-        <v>Somatic Aptitude 1, Coordination Aptitude 1, Willpower Aptitude 2, Alertness 1, Endurance Aptitude 1</v>
+        <v xml:space="preserve">Somatic Aptitude +1, Coordination Aptitude +1, Willpower Aptitude +2, Alertness +1, Endurance Aptitude +1, </v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2245,28 +2245,28 @@
         <v xml:space="preserve">Dancing-12, </v>
       </c>
       <c r="E22" t="str">
-        <f>IF(F!C5&lt;&gt;"","Somatic Aptitude "&amp;F!C5&amp;", ","")</f>
-        <v xml:space="preserve">Somatic Aptitude 1, </v>
+        <f>IF(F!C5&lt;0,"Somatic Aptitude "&amp;F!C5&amp;", ",IF(F!C5&gt;0,"Somatic Aptitude +"&amp;F!C5&amp;", ",""))</f>
+        <v xml:space="preserve">Somatic Aptitude +1, </v>
       </c>
       <c r="F22" t="str">
-        <f>IF(F!D5&lt;&gt;"","Coordination Aptitude "&amp;F!D5&amp;", ","")</f>
-        <v xml:space="preserve">Coordination Aptitude 1, </v>
+        <f>IF(F!D5&lt;0,"Coordination Aptitude "&amp;F!D5&amp;", ",IF(F!D5&gt;0,"Coordination Aptitude +"&amp;F!D5&amp;", ",""))</f>
+        <v xml:space="preserve">Coordination Aptitude +1, </v>
       </c>
       <c r="G22" t="str">
-        <f>IF(F!E5&lt;&gt;"","Intelligence Aptitude "&amp;F!E5&amp;", ","")</f>
+        <f>IF(F!E5&lt;0,"Intelligence Aptitude "&amp;F!E5&amp;", ",IF(F!E5&gt;0,"Intelligence Aptitude +"&amp;F!E5&amp;", ",""))</f>
         <v/>
       </c>
       <c r="H22" t="str">
-        <f>IF(F!F5&lt;&gt;"","Willpower Aptitude "&amp;F!F5&amp;", ","")</f>
-        <v xml:space="preserve">Willpower Aptitude 2, </v>
+        <f>IF(F!F5&lt;0,"Willpower Aptitude "&amp;F!F5&amp;", ",IF(F!F5&gt;0,"Willpower Aptitude +"&amp;F!F5&amp;", ",""))</f>
+        <v xml:space="preserve">Willpower Aptitude +2, </v>
       </c>
       <c r="I22" t="str">
-        <f>IF(F!G5&lt;&gt;"","Alertness "&amp;F!G5&amp;", ","")</f>
-        <v xml:space="preserve">Alertness 1, </v>
+        <f>IF(F!G5&lt;0,"Alertness "&amp;F!G5&amp;", ",IF(F!G5&gt;0,"Alertness +"&amp;F!G5&amp;", ",""))</f>
+        <v xml:space="preserve">Alertness +1, </v>
       </c>
       <c r="J22" t="str">
-        <f>IF(F!H5&lt;&gt;"","Endurance Aptitude "&amp;F!H5,"")</f>
-        <v>Endurance Aptitude 1</v>
+        <f>IF(F!H5&lt;0,"Endurance Aptitude "&amp;F!H5&amp;", ",IF(F!H5&gt;0,"Endurance Aptitude +"&amp;F!H5&amp;", ",""))</f>
+        <v xml:space="preserve">Endurance Aptitude +1, </v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">

--- a/haunting_mars/stats_tx.xlsx
+++ b/haunting_mars/stats_tx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB0CEDD-4480-174A-8D54-2DB4165AD14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BAD755-2258-CA43-B774-382BD2AAB1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="3480" windowWidth="24880" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8720" yWindow="3480" windowWidth="24880" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F" sheetId="1" r:id="rId1"/>
@@ -205,20 +205,20 @@
     <t>Video Gaming</t>
   </si>
   <si>
-    <t>bald, 158 cm, 54 kg</t>
-  </si>
-  <si>
-    <t>SYNTH (RR C FLEXI-SKIN)</t>
-  </si>
-  <si>
-    <t>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Chummy</t>
+    <t>Pod</t>
+  </si>
+  <si>
+    <t>Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Social Stigma: pod</t>
+  </si>
+  <si>
+    <t>170 cm, 60 kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,12 +269,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -458,13 +452,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -969,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H9"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1017,7 +1010,7 @@
         <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -1026,7 +1019,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:H3" si="0">C4+C5</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
@@ -1034,7 +1027,7 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
@@ -1052,17 +1045,17 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>56</v>
+      <c r="A4" t="s">
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1116,23 +1109,23 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="6" t="s">
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1140,16 +1133,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1183,11 +1176,11 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" ref="E12:E35" si="1">H12+C12+D12</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12">
         <f>INDEX($C$3:$H$3,(MATCH($B12,$2:$2,0)-2))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
         <v>36</v>
@@ -1205,11 +1198,11 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13:H29" si="2">INDEX($C$3:$H$3,(MATCH($B13,$2:$2,0)-2))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
         <v>37</v>
@@ -1227,11 +1220,11 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1246,11 +1239,11 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1322,11 +1315,11 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1341,11 +1334,11 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <f>INDEX($C$3:$H$3,(MATCH($B20,$2:$2,0)-2))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1357,11 +1350,11 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1395,11 +1388,11 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1430,11 +1423,11 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1465,11 +1458,11 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1515,11 +1508,11 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30">
         <f t="shared" ref="H30:H46" si="3">INDEX($C$3:$H$3,(MATCH($B30,$2:$2,0)-2))</f>
@@ -1538,11 +1531,11 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1595,11 +1588,11 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1633,11 +1626,11 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" ref="E36:E41" si="4">H36+C36+D36</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1671,11 +1664,11 @@
       </c>
       <c r="E38" s="1">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1690,11 +1683,11 @@
       </c>
       <c r="E39" s="1">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H39">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1709,11 +1702,11 @@
       </c>
       <c r="E40" s="1">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H40">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1796,7 +1789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1820,13 +1813,13 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>UPPER(F!A4)&amp;": "&amp;(F!J2)</f>
-        <v>SYNTH (RR C FLEXI-SKIN): bald, 158 cm, 54 kg</v>
+        <v>POD: 170 cm, 60 kg</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
-        <v>ST 13 DX 11 IQ 11 WILL 12 PER 11 HT 12</v>
+        <v>ST 11 DX 11 IQ 10 WILL 12 PER 11 HT 12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -1838,7 +1831,7 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A7</f>
-        <v>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Chummy</v>
+        <v>Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Social Stigma: pod</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1862,31 +1855,31 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>SkillFormulas!$G$1</f>
-        <v xml:space="preserve">Leadership-14, Performance-14, Public Speaking-14, Acting-12, Brawling-13, Singing-14, </v>
+        <v xml:space="preserve">Leadership-13, Performance-13, Public Speaking-13, Acting-11, Brawling-13, Singing-14, </v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>SkillFormulas!$G$2</f>
-        <v xml:space="preserve">Climbing-6, Composition-12, Demolition-12, Camouflage-11, Free Fall-10, El Ops: Surveillance / Security-12, </v>
+        <v xml:space="preserve">Climbing-6, Composition-11, Demolition-11, Camouflage-10, Free Fall-10, El Ops: Surveillance / Security-11, </v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>SkillFormulas!$G$3</f>
-        <v xml:space="preserve">Survival: Urban-12, Disguise-11, Stealth-11, Streetwise-13, Driving: Ground car-11, Shortsword-11, </v>
+        <v xml:space="preserve">Survival: Urban-12, Disguise-10, Stealth-11, Streetwise-12, Driving: Ground car-11, Shortsword-11, </v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>SkillFormulas!G4</f>
-        <v xml:space="preserve">Guns (Pistol)-11, Fast Talk-14, Filch-11, Dancing-12, Poetry-10, Throwing-10, </v>
+        <v xml:space="preserve">Guns (Pistol)-12, Fast Talk-13, Filch-11, Dancing-12, Poetry-9, Throwing-10, </v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>SkillFormulas!G5</f>
-        <v xml:space="preserve">Politics-10, Carousing-12, Play: Guitar-13, Fabber Programming-10, Video Gaming-11, </v>
+        <v xml:space="preserve">Politics-9, Carousing-12, Play: Guitar-12, Fabber Programming-9, Video Gaming-10, </v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -1928,11 +1921,11 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>F!A12&amp;"-"&amp;F!E12&amp;", "</f>
-        <v xml:space="preserve">Leadership-14, </v>
+        <v xml:space="preserve">Leadership-13, </v>
       </c>
       <c r="B1" t="str">
         <f t="shared" ref="B1:B15" si="0">IF(ISNUMBER(SEARCH("-",A1)),A1,"")</f>
-        <v xml:space="preserve">Leadership-14, </v>
+        <v xml:space="preserve">Leadership-13, </v>
       </c>
       <c r="D1" t="str">
         <f>F!J12&amp;", "</f>
@@ -1944,17 +1937,17 @@
       </c>
       <c r="G1" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6</f>
-        <v xml:space="preserve">Leadership-14, Performance-14, Public Speaking-14, Acting-12, Brawling-13, Singing-14, </v>
+        <v xml:space="preserve">Leadership-13, Performance-13, Public Speaking-13, Acting-11, Brawling-13, Singing-14, </v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>F!A13&amp;"-"&amp;F!E13&amp;", "</f>
-        <v xml:space="preserve">Performance-14, </v>
+        <v xml:space="preserve">Performance-13, </v>
       </c>
       <c r="B2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Performance-14, </v>
+        <v xml:space="preserve">Performance-13, </v>
       </c>
       <c r="D2" t="str">
         <f>F!J13&amp;", "</f>
@@ -1966,17 +1959,17 @@
       </c>
       <c r="G2" t="str">
         <f>B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12</f>
-        <v xml:space="preserve">Climbing-6, Composition-12, Demolition-12, Camouflage-11, Free Fall-10, El Ops: Surveillance / Security-12, </v>
+        <v xml:space="preserve">Climbing-6, Composition-11, Demolition-11, Camouflage-10, Free Fall-10, El Ops: Surveillance / Security-11, </v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>F!A14&amp;"-"&amp;F!E14&amp;", "</f>
-        <v xml:space="preserve">Public Speaking-14, </v>
+        <v xml:space="preserve">Public Speaking-13, </v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Public Speaking-14, </v>
+        <v xml:space="preserve">Public Speaking-13, </v>
       </c>
       <c r="D3" t="str">
         <f>F!J14&amp;", "</f>
@@ -1988,17 +1981,17 @@
       </c>
       <c r="G3" t="str">
         <f>B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18</f>
-        <v xml:space="preserve">Survival: Urban-12, Disguise-11, Stealth-11, Streetwise-13, Driving: Ground car-11, Shortsword-11, </v>
+        <v xml:space="preserve">Survival: Urban-12, Disguise-10, Stealth-11, Streetwise-12, Driving: Ground car-11, Shortsword-11, </v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>F!A15&amp;"-"&amp;F!E15&amp;", "</f>
-        <v xml:space="preserve">Acting-12, </v>
+        <v xml:space="preserve">Acting-11, </v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Acting-12, </v>
+        <v xml:space="preserve">Acting-11, </v>
       </c>
       <c r="D4" t="str">
         <f>F!J15&amp;", "</f>
@@ -2010,7 +2003,7 @@
       </c>
       <c r="G4" t="str">
         <f>B19&amp;B20&amp;B21&amp;B22&amp;B23&amp;B24</f>
-        <v xml:space="preserve">Guns (Pistol)-11, Fast Talk-14, Filch-11, Dancing-12, Poetry-10, Throwing-10, </v>
+        <v xml:space="preserve">Guns (Pistol)-12, Fast Talk-13, Filch-11, Dancing-12, Poetry-9, Throwing-10, </v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2032,7 +2025,7 @@
       </c>
       <c r="G5" t="str">
         <f>B25&amp;B26&amp;B27&amp;B28&amp;B29&amp;B30</f>
-        <v xml:space="preserve">Politics-10, Carousing-12, Play: Guitar-13, Fabber Programming-10, Video Gaming-11, </v>
+        <v xml:space="preserve">Politics-9, Carousing-12, Play: Guitar-12, Fabber Programming-9, Video Gaming-10, </v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2082,11 +2075,11 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>F!A19&amp;"-"&amp;F!E19&amp;", "</f>
-        <v xml:space="preserve">Composition-12, </v>
+        <v xml:space="preserve">Composition-11, </v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Composition-12, </v>
+        <v xml:space="preserve">Composition-11, </v>
       </c>
       <c r="D8" t="str">
         <f>F!J19&amp;", "</f>
@@ -2100,11 +2093,11 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>F!A20&amp;"-"&amp;F!E20&amp;", "</f>
-        <v xml:space="preserve">Demolition-12, </v>
+        <v xml:space="preserve">Demolition-11, </v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Demolition-12, </v>
+        <v xml:space="preserve">Demolition-11, </v>
       </c>
       <c r="D9" t="str">
         <f>F!J20&amp;", "</f>
@@ -2118,11 +2111,11 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>F!A21&amp;"-"&amp;F!E21&amp;", "</f>
-        <v xml:space="preserve">Camouflage-11, </v>
+        <v xml:space="preserve">Camouflage-10, </v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Camouflage-11, </v>
+        <v xml:space="preserve">Camouflage-10, </v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2138,11 +2131,11 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>F!A23&amp;"-"&amp;F!E23&amp;", "</f>
-        <v xml:space="preserve">El Ops: Surveillance / Security-12, </v>
+        <v xml:space="preserve">El Ops: Surveillance / Security-11, </v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">El Ops: Surveillance / Security-12, </v>
+        <v xml:space="preserve">El Ops: Surveillance / Security-11, </v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2158,11 +2151,11 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>F!A25&amp;"-"&amp;F!E25&amp;", "</f>
-        <v xml:space="preserve">Disguise-11, </v>
+        <v xml:space="preserve">Disguise-10, </v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Disguise-11, </v>
+        <v xml:space="preserve">Disguise-10, </v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2178,11 +2171,11 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>F!A27&amp;"-"&amp;F!E27&amp;", "</f>
-        <v xml:space="preserve">Streetwise-13, </v>
+        <v xml:space="preserve">Streetwise-12, </v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ref="B16:B30" si="2">IF(ISNUMBER(SEARCH("-",A16)),A16,"")</f>
-        <v xml:space="preserve">Streetwise-13, </v>
+        <v xml:space="preserve">Streetwise-12, </v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2208,21 +2201,21 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>F!A30&amp;"-"&amp;F!E30&amp;", "</f>
-        <v xml:space="preserve">Guns (Pistol)-11, </v>
+        <v xml:space="preserve">Guns (Pistol)-12, </v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Guns (Pistol)-11, </v>
+        <v xml:space="preserve">Guns (Pistol)-12, </v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>F!A31&amp;"-"&amp;F!E31&amp;", "</f>
-        <v xml:space="preserve">Fast Talk-14, </v>
+        <v xml:space="preserve">Fast Talk-13, </v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Fast Talk-14, </v>
+        <v xml:space="preserve">Fast Talk-13, </v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2272,11 +2265,11 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>F!A34&amp;"-"&amp;F!E34&amp;", "</f>
-        <v xml:space="preserve">Poetry-10, </v>
+        <v xml:space="preserve">Poetry-9, </v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Poetry-10, </v>
+        <v xml:space="preserve">Poetry-9, </v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2292,11 +2285,11 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>F!A36&amp;"-"&amp;F!E36&amp;", "</f>
-        <v xml:space="preserve">Politics-10, </v>
+        <v xml:space="preserve">Politics-9, </v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Politics-10, </v>
+        <v xml:space="preserve">Politics-9, </v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2312,31 +2305,31 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>F!A38&amp;"-"&amp;F!E38&amp;", "</f>
-        <v xml:space="preserve">Play: Guitar-13, </v>
+        <v xml:space="preserve">Play: Guitar-12, </v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Play: Guitar-13, </v>
+        <v xml:space="preserve">Play: Guitar-12, </v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>F!A39&amp;"-"&amp;F!E39&amp;", "</f>
-        <v xml:space="preserve">Fabber Programming-10, </v>
+        <v xml:space="preserve">Fabber Programming-9, </v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Fabber Programming-10, </v>
+        <v xml:space="preserve">Fabber Programming-9, </v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>F!A40&amp;"-"&amp;F!E40&amp;", "</f>
-        <v xml:space="preserve">Video Gaming-11, </v>
+        <v xml:space="preserve">Video Gaming-10, </v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Video Gaming-11, </v>
+        <v xml:space="preserve">Video Gaming-10, </v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
